--- a/results/Finse_4432_TILE/Finse_4432_TILE.xlsx
+++ b/results/Finse_4432_TILE/Finse_4432_TILE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joasc\Documents\Research\Modeling\CryoGrid\Model_versions &amp; runs\CryoGrid2020_26_edit_joasc\results\Finse_4432_TILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\git\CryoGrid\results\Finse_4432_TILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="156">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -71,9 +71,6 @@
     <t>maximum change of energy per timestep</t>
   </si>
   <si>
-    <t>CLASS</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>strat_layers_id</t>
+  </si>
+  <si>
+    <t>SUBSURFACE_CLASS</t>
   </si>
 </sst>
 </file>
@@ -837,288 +837,288 @@
   <dimension ref="A1:K280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.81640625" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0.25</v>
       </c>
       <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>75</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>55</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1127,12 +1127,12 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>0.5</v>
@@ -1141,37 +1141,37 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>61</v>
       </c>
       <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>1222</v>
@@ -1180,12 +1180,12 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>42</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -1194,12 +1194,12 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>0.05</v>
@@ -1208,12 +1208,12 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1225,44 +1225,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1273,12 +1273,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1333,76 +1333,76 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+      <c r="B62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="D62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="I62" t="s">
+        <v>122</v>
+      </c>
+      <c r="J62" t="s">
         <v>123</v>
       </c>
-      <c r="J62" t="s">
-        <v>124</v>
-      </c>
       <c r="K62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1422,18 +1422,18 @@
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12</v>
       </c>
@@ -1538,159 +1538,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
         <v>93</v>
       </c>
-      <c r="C75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
       </c>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>100</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5000</v>
       </c>
@@ -1730,52 +1730,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="7" t="s">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="6" t="s">
+      <c r="C107" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D107" t="s">
         <v>18</v>
       </c>
-      <c r="D107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -1826,33 +1826,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B111" s="6">
         <v>100</v>
       </c>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" s="6">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
         <v>89</v>
       </c>
-      <c r="B112" s="6">
-        <v>1</v>
-      </c>
-      <c r="C112" s="6">
-        <v>1</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>90</v>
       </c>
-      <c r="E112" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -1866,9 +1866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B114" s="6">
         <v>3600</v>
@@ -1883,9 +1883,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B115" s="6">
         <v>50000</v>
@@ -1900,75 +1900,75 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B117" s="6">
         <v>3</v>
       </c>
       <c r="C117" s="6"/>
       <c r="E117" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="7">
         <v>1</v>
       </c>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="D125" t="s">
         <v>18</v>
       </c>
-      <c r="D125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -2019,97 +2019,97 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B129" s="6">
         <v>100</v>
       </c>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" s="6">
+        <v>1</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
         <v>89</v>
       </c>
-      <c r="B130" s="6">
-        <v>1</v>
-      </c>
-      <c r="C130" s="6">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>90</v>
       </c>
-      <c r="E130" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B132" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B133">
         <v>0.4</v>
       </c>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B134">
         <v>0.4</v>
       </c>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B135">
         <v>0.5</v>
       </c>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B137" s="6">
         <v>1000</v>
       </c>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B138" s="6">
         <v>1000</v>
       </c>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B139" s="6">
         <v>-30</v>
@@ -2121,9 +2121,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B140" s="6">
         <v>0.05</v>
@@ -2138,9 +2138,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B141" s="6">
         <v>0.95</v>
@@ -2155,16 +2155,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B142" s="6">
         <v>0.05</v>
       </c>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -2173,82 +2173,82 @@
       </c>
       <c r="C143" s="6"/>
       <c r="E143" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B144" s="6">
         <v>3600</v>
       </c>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B145" s="6">
         <v>50000</v>
       </c>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B147" s="6">
         <v>3</v>
       </c>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C150" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
         <v>18</v>
       </c>
-      <c r="D150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B152" s="7">
         <v>1</v>
       </c>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" s="6">
         <v>0.99</v>
@@ -2260,9 +2260,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B155" s="6">
         <v>0</v>
@@ -2277,28 +2277,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B156" s="6">
         <v>0.71</v>
       </c>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B157" s="6">
         <v>0.21</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -2316,18 +2316,18 @@
       </c>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B160" s="6">
         <v>0</v>
       </c>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B161" s="6">
         <v>48</v>
@@ -2342,9 +2342,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B162" s="6">
         <v>0.05</v>
@@ -2359,92 +2359,92 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B163" s="9">
         <v>1E-4</v>
       </c>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B164" s="6">
         <v>0.02</v>
       </c>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B165" s="6">
         <v>3600</v>
       </c>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B166" s="6">
         <v>50000</v>
       </c>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B171" s="7" t="s">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B172" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="6"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B172" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B174" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="D174" t="s">
         <v>18</v>
       </c>
-      <c r="D174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -2461,24 +2461,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B176" s="6">
         <v>2</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D176" t="s">
+        <v>101</v>
+      </c>
+      <c r="E176" t="s">
         <v>102</v>
       </c>
-      <c r="E176" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -2512,35 +2512,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B179" s="6">
         <v>0</v>
       </c>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>88</v>
+      </c>
+      <c r="B180" s="6">
+        <v>1</v>
+      </c>
+      <c r="C180" s="6">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
         <v>89</v>
       </c>
-      <c r="B180" s="6">
-        <v>1</v>
-      </c>
-      <c r="C180" s="6">
-        <v>1</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>90</v>
       </c>
-      <c r="E180" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B181" s="6">
         <v>300</v>
@@ -2552,31 +2552,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B182" s="6">
         <v>0.05</v>
       </c>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B184" s="6">
         <v>0.02</v>
       </c>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B185" s="6">
         <v>3600</v>
@@ -2591,9 +2591,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B186" s="6">
         <v>50000</v>
@@ -2608,64 +2608,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A190" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="2" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="6"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="6"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B194" t="s">
         <v>15</v>
       </c>
-      <c r="B191" s="7" t="s">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>16</v>
       </c>
-      <c r="C191" s="6"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B192" s="6"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>17</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>18</v>
       </c>
-      <c r="D197" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -2682,7 +2676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2</v>
       </c>
@@ -2699,7 +2693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -2716,24 +2710,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>88</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
         <v>89</v>
       </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>90</v>
       </c>
-      <c r="E202" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -2747,9 +2741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B204">
         <v>3600</v>
@@ -2764,9 +2758,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B205">
         <v>50000</v>
@@ -2781,102 +2775,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B207">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B209" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B210">
         <v>0.1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B211">
         <v>0.1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B212">
         <v>0.5</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A216" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A217" s="2" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="6"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220" t="s">
         <v>15</v>
       </c>
-      <c r="B217" s="7" t="s">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>16</v>
       </c>
-      <c r="C217" s="6"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B218" s="6"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A220" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B220" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A221" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>17</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>18</v>
       </c>
-      <c r="D223" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1</v>
       </c>
@@ -2893,7 +2881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -2910,7 +2898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -2927,24 +2915,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>88</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
         <v>89</v>
       </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>90</v>
       </c>
-      <c r="E228" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -2958,9 +2946,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B230">
         <v>3600</v>
@@ -2975,9 +2963,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B231">
         <v>50000</v>
@@ -2992,201 +2980,201 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B233">
         <v>3</v>
       </c>
       <c r="E233" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B235" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B236">
         <v>0.1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B237">
         <v>0.1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B238">
         <v>0.5</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B262" s="6"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B263" s="6"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="7"/>
       <c r="C265" s="6"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="7"/>
       <c r="C266" s="6"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C280" s="6"/>
     </row>
   </sheetData>
